--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44158108-D531-4BFA-841E-86A4F1A0DBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FA4017-0F02-462C-A16C-136300E9C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,17 @@
   </si>
   <si>
     <t>eventType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+  </si>
+  <si>
+    <t>ショップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -138,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,14 +172,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -449,141 +472,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <f>VLOOKUP(C2,reference!A:B,2,FALSE)</f>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <f>VLOOKUP(D2,reference!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <f>VLOOKUP(C3,reference!A:B,2,FALSE)</f>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <f>VLOOKUP(D3,reference!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f>VLOOKUP(C4,reference!A:B,2,FALSE)</f>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <f>VLOOKUP(D4,reference!A:B,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>-1</v>
-      </c>
       <c r="E4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <f>VLOOKUP(C5,reference!A:B,2,FALSE)</f>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <f>VLOOKUP(D5,reference!A:B,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <f>VLOOKUP(C6,reference!A:B,2,FALSE)</f>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <f>VLOOKUP(D6,reference!A:B,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>-1</v>
-      </c>
       <c r="E6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <f>VLOOKUP(C7,reference!A:B,2,FALSE)</f>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>VLOOKUP(D7,reference!A:B,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>-1</v>
-      </c>
       <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -598,7 +647,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C25</xm:sqref>
+          <xm:sqref>D2:D25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -608,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -667,6 +716,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FA4017-0F02-462C-A16C-136300E9C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3F17B-47A8-4EA7-929C-374709FC3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -109,9 +109,13 @@
   </si>
   <si>
     <t>ショップ</t>
-  </si>
-  <si>
-    <t>ショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを得る</t>
+    <rPh sb="4" eb="5">
+      <t>エ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -179,7 +183,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -187,11 +193,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -509,7 +518,9 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
       <c r="C2" s="1">
         <f>VLOOKUP(D2,reference!A:B,2,FALSE)</f>
         <v>0</v>
@@ -528,7 +539,9 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
       <c r="C3" s="1">
         <f>VLOOKUP(D3,reference!A:B,2,FALSE)</f>
         <v>1</v>
@@ -547,7 +560,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
       <c r="C4" s="1">
         <f>VLOOKUP(D4,reference!A:B,2,FALSE)</f>
         <v>2</v>
@@ -566,7 +581,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
       <c r="C5" s="1">
         <f>VLOOKUP(D5,reference!A:B,2,FALSE)</f>
         <v>3</v>
@@ -585,7 +602,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
       <c r="C6" s="1">
         <f>VLOOKUP(D6,reference!A:B,2,FALSE)</f>
         <v>4</v>
@@ -604,7 +623,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>-1</v>
+      </c>
       <c r="C7" s="1">
         <f>VLOOKUP(D7,reference!A:B,2,FALSE)</f>
         <v>5</v>
@@ -623,18 +644,29 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>-1</v>
       </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -657,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -718,14 +750,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3F17B-47A8-4EA7-929C-374709FC3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95D79D8-F296-474E-8B4C-5E7F4908239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Desktop\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95D79D8-F296-474E-8B4C-5E7F4908239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F7A22-D7C2-4A2F-8378-A7CCD3583691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,9 @@
       <t>エ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
   </si>
 </sst>
 </file>
@@ -193,14 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -483,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -645,26 +648,40 @@
       <c r="B8" s="3">
         <v>-1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
+        <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
+        <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Desktop\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F7A22-D7C2-4A2F-8378-A7CCD3583691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D6219-61C9-4166-95D8-3C9D6786B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コインを得る</t>
     <rPh sb="4" eb="5">
       <t>エ</t>
@@ -119,7 +115,179 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショップ</t>
+    <t>全員リシャッフル</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを失う</t>
+    <rPh sb="4" eb="5">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員にカード付与</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムなプレイヤーと位置替え</t>
+    <rPh sb="11" eb="14">
+      <t>イチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキと捨て札入れ替え</t>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員のコイン平等</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分失う</t>
+    <rPh sb="4" eb="6">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを倍にする</t>
+    <rPh sb="4" eb="5">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員コインを失う</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員位置入れ替え</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンインイチイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員を自身のマスに移動</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート位置に戻す</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターの位置を移動</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインをすべて失う</t>
+    <rPh sb="7" eb="8">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行方向が逆になる</t>
+    <rPh sb="0" eb="4">
+      <t>シンコウホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員からコインを奪う</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かれ道入れ替え</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミチイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッキーイベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンラッキーイベント</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -156,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,29 +347,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -482,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -652,11 +806,11 @@
         <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>-1</v>
@@ -664,7 +818,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>-1</v>
@@ -673,13 +827,55 @@
         <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="1">
+        <f>VLOOKUP(D10,reference!A:B,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="1">
+        <f>VLOOKUP(D11,reference!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -704,15 +900,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="J23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -777,6 +973,108 @@
       </c>
       <c r="B8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D6219-61C9-4166-95D8-3C9D6786B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D5B3A3-CE6F-4F9F-BA2F-65D977BDC9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +287,48 @@
   </si>
   <si>
     <t>アンラッキーイベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札をすべて捨てる</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通り過ぎない場合コイン獲得</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のマス効果を2回繰り返す</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -638,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -900,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="J23:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1077,6 +1117,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D5B3A3-CE6F-4F9F-BA2F-65D977BDC9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DC992-0AFC-4B9D-BB8E-8F4E09B5A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -162,16 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全員のコイン平等</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ビョウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コインを半分失う</t>
     <rPh sb="4" eb="6">
       <t>ハンブン</t>
@@ -329,6 +319,19 @@
     <rPh sb="11" eb="12">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッキーイベント</t>
+  </si>
+  <si>
+    <t>アンラッキーイベント</t>
+  </si>
+  <si>
+    <t>スター</t>
+  </si>
+  <si>
+    <t>スター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -678,9 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -910,12 +915,75 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>-1</v>
       </c>
       <c r="F11" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(D12,reference!A:B,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="1">
+        <f>VLOOKUP(D13,reference!A:B,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>VLOOKUP(D14,reference!A:B,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -942,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1025,7 +1093,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1033,7 +1101,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1041,7 +1109,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1049,57 +1117,60 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1119,17 +1190,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DC992-0AFC-4B9D-BB8E-8F4E09B5A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF182FB-6F3B-4656-B9AC-3BF58837AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -332,6 +332,13 @@
   </si>
   <si>
     <t>スター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+  </si>
+  <si>
+    <t>ショップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -681,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -984,6 +991,27 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>VLOOKUP(D15,reference!A:B,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1008,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1125,7 +1153,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1201,6 +1232,11 @@
     <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF182FB-6F3B-4656-B9AC-3BF58837AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD47967-A54E-4449-BE6B-B0FED8D795B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD47967-A54E-4449-BE6B-B0FED8D795B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE7362-8D4D-45A1-B8E0-F3056465CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>VLOOKUP(D2,reference!A:B,2,FALSE)</f>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>VLOOKUP(D3,reference!A:B,2,FALSE)</f>
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>VLOOKUP(D4,reference!A:B,2,FALSE)</f>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f>VLOOKUP(D5,reference!A:B,2,FALSE)</f>
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f>VLOOKUP(D6,reference!A:B,2,FALSE)</f>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f>VLOOKUP(D7,reference!A:B,2,FALSE)</f>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f>VLOOKUP(D10,reference!A:B,2,FALSE)</f>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f>VLOOKUP(D11,reference!A:B,2,FALSE)</f>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>-1</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <f>VLOOKUP(D12,reference!A:B,2,FALSE)</f>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>-1</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1">
         <f>VLOOKUP(D13,reference!A:B,2,FALSE)</f>
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
         <f>VLOOKUP(D14,reference!A:B,2,FALSE)</f>
@@ -999,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>-1</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <f>VLOOKUP(D15,reference!A:B,2,FALSE)</f>
@@ -1038,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE7362-8D4D-45A1-B8E0-F3056465CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68018B9A-8829-4DE8-A7B6-AD03F2C7F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11925" yWindow="-8730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C8" s="1">
         <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="1">
         <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C10" s="1">
         <f>VLOOKUP(D10,reference!A:B,2,FALSE)</f>
@@ -1012,6 +1012,48 @@
         <v>-1</v>
       </c>
       <c r="F15" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <f>VLOOKUP(D16,reference!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <f>VLOOKUP(D17,reference!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1036,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1161,12 +1203,18 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1221,12 +1269,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1237,6 +1285,11 @@
     <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68018B9A-8829-4DE8-A7B6-AD03F2C7F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B174C5A-86A9-4833-9643-434726E141EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="-8730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -306,39 +306,160 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次のマス効果を2回繰り返す</t>
+    <t>ラッキーイベント</t>
+  </si>
+  <si>
+    <t>アンラッキーイベント</t>
+  </si>
+  <si>
+    <t>スター</t>
+  </si>
+  <si>
+    <t>スター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のマス効果を繰り返す</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウカ</t>
     </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通過プレイヤーの手札を捨てる</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>カイク</t>
+      <t>テフダ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラッキーイベント</t>
-  </si>
-  <si>
-    <t>アンラッキーイベント</t>
-  </si>
-  <si>
-    <t>スター</t>
-  </si>
-  <si>
-    <t>スター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップ</t>
-  </si>
-  <si>
-    <t>ショップ</t>
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターカードを奪う</t>
+    <rPh sb="7" eb="8">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進むマスを1,2,3から選ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進むマスを4,5,6から選ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札交換</t>
+    <rPh sb="0" eb="4">
+      <t>テフダコウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札を捨て、そのマスを足して進む</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札からデッキに戻し効果実行</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>コウカジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードの効果発動</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札に同じマス数があればコインを獲得</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札からデッキに戻す</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -376,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -399,15 +520,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -688,17 +821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -943,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -964,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -985,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -1006,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -1054,6 +1187,237 @@
         <v>10</v>
       </c>
       <c r="F17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <f>VLOOKUP(D18,reference!A:B,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <f>VLOOKUP(D19,reference!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <f>VLOOKUP(D20,reference!A:B,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <f>VLOOKUP(D21,reference!A:B,2,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <f>VLOOKUP(D22,reference!A:B,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <f>VLOOKUP(D23,reference!A:B,2,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <f>VLOOKUP(D24,reference!A:B,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <f>VLOOKUP(D25,reference!A:B,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <f>VLOOKUP(D26,reference!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <f>VLOOKUP(D27,reference!A:B,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <f>VLOOKUP(D28,reference!A:B,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -1061,6 +1425,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" evalError="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1068,7 +1435,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D25</xm:sqref>
+          <xm:sqref>D2:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1078,15 +1445,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1187,7 +1554,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1195,7 +1562,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1217,79 +1584,162 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B174C5A-86A9-4833-9643-434726E141EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D59BE-0B0A-4BA7-9370-25113EAE0E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -459,6 +459,16 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分失い、その分マス＋</t>
+    <rPh sb="4" eb="7">
+      <t>ハンブンウシナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -520,27 +530,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -821,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1401,10 +1399,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>19</v>
       </c>
       <c r="C28" s="1">
@@ -1414,10 +1412,52 @@
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <f>VLOOKUP(D29,reference!A:B,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <f>VLOOKUP(D30,reference!A:B,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1435,7 +1475,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D28</xm:sqref>
+          <xm:sqref>D2:D30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1445,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1674,7 +1714,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1740,6 +1783,11 @@
     <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D59BE-0B0A-4BA7-9370-25113EAE0E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216FFFB-A54A-4DE5-B6C4-ADD18C5691B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -469,6 +469,46 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムなカードを取得</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員ランダムに手札入れ替え</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テフダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン再分配</t>
+    <rPh sb="3" eb="6">
+      <t>サイブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員手札を捨てる</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -819,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1458,6 +1498,48 @@
         <v>3</v>
       </c>
       <c r="F30" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="1">
+        <f>VLOOKUP(D31,reference!A:B,2,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="1">
+        <f>VLOOKUP(D32,reference!A:B,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1475,7 +1557,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D30</xm:sqref>
+          <xm:sqref>D2:D32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1485,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1722,12 +1804,18 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1737,57 +1825,77 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216FFFB-A54A-4DE5-B6C4-ADD18C5691B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F50934-EAC7-4B0A-A529-92791928929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1540,6 +1540,69 @@
         <v>-1</v>
       </c>
       <c r="F32" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="1">
+        <f>VLOOKUP(D33,reference!A:B,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="1">
+        <f>VLOOKUP(D34,reference!A:B,2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C35" s="1">
+        <f>VLOOKUP(D35,reference!A:B,2,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1557,7 +1620,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D32</xm:sqref>
+          <xm:sqref>D2:D35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1569,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1822,78 +1885,82 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>16</v>
       </c>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F50934-EAC7-4B0A-A529-92791928929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E6AE7-03AE-4A0A-B6A1-EA5D7F094AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>-1</v>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <v>-1</v>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E6AE7-03AE-4A0A-B6A1-EA5D7F094AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C15A8C-6D74-44C4-B8AC-F548B41E6DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,16 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コインを半分失い、その分マス＋</t>
-    <rPh sb="4" eb="7">
-      <t>ハンブンウシナ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランダムなカードを取得</t>
     <rPh sb="9" eb="11">
       <t>シュトク</t>
@@ -509,6 +499,19 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分失い、その分進む</t>
+    <rPh sb="4" eb="7">
+      <t>ハンブンウシナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1075,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
         <v>-1</v>
@@ -1471,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -1513,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -1633,7 +1636,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1927,17 +1930,17 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C15A8C-6D74-44C4-B8AC-F548B41E6DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A3A5A-A045-4668-945F-78FF04F613F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -862,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1606,6 +1606,48 @@
         <v>-1</v>
       </c>
       <c r="F35" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="1">
+        <f>VLOOKUP(D36,reference!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="1">
+        <f>VLOOKUP(D37,reference!A:B,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1623,7 +1665,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D35</xm:sqref>
+          <xm:sqref>D2:D37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1636,7 +1678,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A3A5A-A045-4668-945F-78FF04F613F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47889E71-DC5A-4613-AC17-BA4785C33671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -513,6 +513,10 @@
     <rPh sb="12" eb="13">
       <t>スス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conditionID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -862,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -873,9 +877,10 @@
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,13 +894,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -910,13 +918,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -931,13 +942,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="F4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -973,13 +990,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -999,8 +1019,11 @@
       <c r="F6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1020,8 +1043,11 @@
       <c r="F7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1035,14 +1061,17 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1056,14 +1085,17 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>-1</v>
       </c>
       <c r="F9" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1077,14 +1109,17 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1098,14 +1133,17 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>-1</v>
       </c>
       <c r="F11" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1119,14 +1157,17 @@
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>-1</v>
       </c>
       <c r="F12" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1140,14 +1181,17 @@
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1161,14 +1205,17 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1182,14 +1229,17 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>-1</v>
       </c>
       <c r="F15" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1203,14 +1253,17 @@
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>-1</v>
       </c>
       <c r="F16" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1224,14 +1277,17 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="3">
         <v>10</v>
       </c>
-      <c r="F17" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1245,14 +1301,17 @@
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1266,14 +1325,17 @@
       <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1287,14 +1349,17 @@
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1308,14 +1373,17 @@
       <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>-1</v>
       </c>
       <c r="F21" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1329,14 +1397,17 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>-1</v>
       </c>
       <c r="F22" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1350,14 +1421,17 @@
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>-1</v>
       </c>
       <c r="F23" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1371,14 +1445,17 @@
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>-1</v>
       </c>
       <c r="F24" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1392,14 +1469,17 @@
       <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>-1</v>
       </c>
       <c r="F25" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1413,14 +1493,17 @@
       <c r="D26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>-1</v>
       </c>
       <c r="F26" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1434,14 +1517,17 @@
       <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="3">
         <v>10</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1455,14 +1541,17 @@
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1476,14 +1565,17 @@
       <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="3">
-        <v>-1</v>
+      <c r="E29" s="1">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1497,14 +1589,17 @@
       <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1518,14 +1613,17 @@
       <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>-1</v>
       </c>
       <c r="F31" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1539,14 +1637,17 @@
       <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>-1</v>
       </c>
       <c r="F32" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1560,14 +1661,17 @@
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1581,14 +1685,17 @@
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
         <v>3</v>
       </c>
-      <c r="F34" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1602,14 +1709,17 @@
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>-1</v>
       </c>
       <c r="F35" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1623,14 +1733,17 @@
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="3">
         <v>10</v>
       </c>
-      <c r="F36" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1644,10 +1757,13 @@
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
         <v>10</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1677,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D320D06-48D5-4BBE-B416-6CD8CB77B4C4}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47889E71-DC5A-4613-AC17-BA4785C33671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20AD604-27D4-469F-8AC6-84483F6C8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1566,7 +1566,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="3">
         <v>-1</v>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20AD604-27D4-469F-8AC6-84483F6C8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA5623-AA2F-4DDA-B74E-7FA2B8EF301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1374,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
         <v>-1</v>
@@ -1566,7 +1566,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>-1</v>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA5623-AA2F-4DDA-B74E-7FA2B8EF301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FD2276-9F48-4454-A72A-4565D22FC4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="-1185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1764,6 +1764,54 @@
         <v>10</v>
       </c>
       <c r="G37" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="1">
+        <f>VLOOKUP(D38,reference!A:B,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C39" s="1">
+        <f>VLOOKUP(D39,reference!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
         <v>-1</v>
       </c>
     </row>
@@ -1781,7 +1829,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D37</xm:sqref>
+          <xm:sqref>D2:D39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/EventData.xlsx
+++ b/Assets/Resources/MasterData/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FD2276-9F48-4454-A72A-4565D22FC4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482292C-DBA0-4220-BE48-FD97200FA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="-1185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1566,10 +1566,10 @@
         <v>54</v>
       </c>
       <c r="E29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="3">
         <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-1</v>
       </c>
       <c r="G29" s="3">
         <v>-1</v>
